--- a/Data/Flows/floProfil.xlsx
+++ b/Data/Flows/floProfil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Flows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9453DC2-6892-43A7-B3A7-0E210A24BAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408A874B-16F2-479D-AC55-9FB262862824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="4800" windowWidth="40440" windowHeight="15300" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="420" yWindow="636" windowWidth="40440" windowHeight="15300" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Logoff</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>001_Login_001_Successful</t>
+  </si>
+  <si>
+    <t>003_Profil_003_Abwesenheiten_Normalfall_Anlage</t>
+  </si>
+  <si>
+    <t>var003_Profil_003_Abwesenheiten_Normalfall_Anlage</t>
   </si>
 </sst>
 </file>
@@ -409,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,6 +471,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Data/Flows/floProfil.xlsx
+++ b/Data/Flows/floProfil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Flows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408A874B-16F2-479D-AC55-9FB262862824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C74A4E-52E7-4A46-A237-6FD7E08F1309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="636" windowWidth="40440" windowHeight="15300" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="648" yWindow="672" windowWidth="38784" windowHeight="15300" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Logoff</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>var003_Profil_003_Abwesenheiten_Normalfall_Anlage</t>
+  </si>
+  <si>
+    <t>003_Profil_002_Profil_Datenaenderung</t>
+  </si>
+  <si>
+    <t>var003_Profil_002_Profil_Datenaenderung</t>
   </si>
 </sst>
 </file>
@@ -415,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,10 +479,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -485,9 +491,29 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>0</v>
       </c>
     </row>
